--- a/tests/Resources/Non Zero Header Index.xlsx
+++ b/tests/Resources/Non Zero Header Index.xlsx
@@ -71,10 +71,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,49 +353,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:A8"/>
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
